--- a/data/pretuning_closed_loop_cryo.xlsx
+++ b/data/pretuning_closed_loop_cryo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\striptease\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Debian\home\zec\Tesi\striptease\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C1DE23-F12C-4DEB-86E3-0B374DCD921B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6137E4FC-315B-4B52-858D-7FF5F6E897BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -231,16 +231,16 @@
     <t>HB3</t>
   </si>
   <si>
-    <t>2000;7000;25;[1800,1800,1800,1800];[2500,2500,2500,2500];35</t>
-  </si>
-  <si>
-    <t>3000;10000;25;[1800,1800,1800,1800];[2500,2500,2500,2500];35</t>
-  </si>
-  <si>
-    <t>5000;14000;18;[1800,1800,1800,1800];[2500,2500,2500,2500];35</t>
-  </si>
-  <si>
-    <t>[1800,1800,1800,1800];[2500,2500,2500,2500];35</t>
+    <t>3000;8000;25;[2200,2200,2200,2200];[2600,2600,2600,2600];10</t>
+  </si>
+  <si>
+    <t>3000;10000;25;[2200,2200,2200,2200];[2600,2600,2600,2600];10</t>
+  </si>
+  <si>
+    <t>5000;14000;18;[2200,2200,2200,2200];[2600,2600,2600,2600];10</t>
+  </si>
+  <si>
+    <t>[2200,2200,2200,2200];[2600,2600,2600,2600];10</t>
   </si>
 </sst>
 </file>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
